--- a/Neural_Networks/Final Predictions/NNtest.xlsx
+++ b/Neural_Networks/Final Predictions/NNtest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,45 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Gini Index</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Gini Index</t>
+          <t>Population</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>Urban Population (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Urban Population (%)</t>
+          <t>Number of tests</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Number of tests</t>
+          <t>Measured number of infections</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Measured number of infections</t>
+          <t>Pop*1.1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Pop*1.1</t>
+          <t>Neural network Predictions test countries</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Neural network Predictions test countries</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Neural network Predictions hypothetical test countries</t>
         </is>
@@ -489,370 +484,374 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>0.328</v>
+      </c>
       <c r="D2" t="n">
-        <v>32.8</v>
+        <v>28608710</v>
       </c>
       <c r="E2" t="n">
-        <v>28608710</v>
+        <v>20.153</v>
       </c>
       <c r="F2" t="n">
-        <v>20.153</v>
+        <v>2770980</v>
       </c>
       <c r="G2" t="n">
-        <v>2770980</v>
+        <v>464218</v>
       </c>
       <c r="H2" t="n">
-        <v>464218</v>
+        <v>31469581</v>
       </c>
       <c r="I2" t="n">
-        <v>31469581</v>
+        <v>422547.5602236092</v>
       </c>
       <c r="J2" t="n">
-        <v>434441.4630034268</v>
-      </c>
-      <c r="K2" t="n">
-        <v>647025.5140884221</v>
+        <v>697850.3890247345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Vietnam</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>0.357</v>
+      </c>
       <c r="D3" t="n">
-        <v>35.7</v>
+        <v>96462106</v>
       </c>
       <c r="E3" t="n">
-        <v>96462106</v>
+        <v>36.628</v>
       </c>
       <c r="F3" t="n">
-        <v>36.628</v>
+        <v>3000000</v>
       </c>
       <c r="G3" t="n">
-        <v>3000000</v>
+        <v>4359</v>
       </c>
       <c r="H3" t="n">
-        <v>4359</v>
+        <v>106108316.6</v>
       </c>
       <c r="I3" t="n">
-        <v>106108316.6</v>
+        <v>1517195.957459688</v>
       </c>
       <c r="J3" t="n">
-        <v>1467298.179905891</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2227357.078304887</v>
+        <v>2387619.971201897</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Mongolia</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>0.327</v>
+      </c>
       <c r="D4" t="n">
-        <v>32.7</v>
+        <v>3225167</v>
       </c>
       <c r="E4" t="n">
-        <v>3225167</v>
+        <v>68.54300000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>68.54300000000001</v>
+        <v>2800505</v>
       </c>
       <c r="G4" t="n">
-        <v>2800505</v>
+        <v>49524</v>
       </c>
       <c r="H4" t="n">
-        <v>49524</v>
+        <v>3547683.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3547683.7</v>
+        <v>112809.336062327</v>
       </c>
       <c r="J4" t="n">
-        <v>60523.26854935661</v>
-      </c>
-      <c r="K4" t="n">
-        <v>33934.50658951141</v>
+        <v>19335.79575616494</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Kenya</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>0.408</v>
+      </c>
       <c r="D5" t="n">
-        <v>40.8</v>
+        <v>52573973</v>
       </c>
       <c r="E5" t="n">
-        <v>52573973</v>
+        <v>27.507</v>
       </c>
       <c r="F5" t="n">
-        <v>27.507</v>
+        <v>1675310</v>
       </c>
       <c r="G5" t="n">
-        <v>1675310</v>
+        <v>165537</v>
       </c>
       <c r="H5" t="n">
-        <v>165537</v>
+        <v>57831370.3</v>
       </c>
       <c r="I5" t="n">
-        <v>57831370.3</v>
+        <v>1130416.920038164</v>
       </c>
       <c r="J5" t="n">
-        <v>1130405.728874624</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1278473.13359201</v>
+        <v>1303562.652504861</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ghana</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>0.435</v>
+      </c>
       <c r="D6" t="n">
-        <v>43.5</v>
+        <v>30417856</v>
       </c>
       <c r="E6" t="n">
-        <v>30417856</v>
+        <v>56.707</v>
       </c>
       <c r="F6" t="n">
-        <v>56.707</v>
+        <v>1118523</v>
       </c>
       <c r="G6" t="n">
-        <v>1118523</v>
+        <v>93333</v>
       </c>
       <c r="H6" t="n">
-        <v>93333</v>
+        <v>33459641.6</v>
       </c>
       <c r="I6" t="n">
-        <v>33459641.6</v>
+        <v>1083931.953636229</v>
       </c>
       <c r="J6" t="n">
-        <v>1042275.974301755</v>
-      </c>
-      <c r="K6" t="n">
-        <v>900037.766893208</v>
+        <v>823892.7610159516</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Zambia</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>0.571</v>
+      </c>
       <c r="D7" t="n">
-        <v>57.1</v>
+        <v>17861030</v>
       </c>
       <c r="E7" t="n">
-        <v>17861030</v>
+        <v>44.072</v>
       </c>
       <c r="F7" t="n">
-        <v>44.072</v>
+        <v>1474620</v>
       </c>
       <c r="G7" t="n">
-        <v>1474620</v>
+        <v>92630</v>
       </c>
       <c r="H7" t="n">
-        <v>92630</v>
+        <v>19647133</v>
       </c>
       <c r="I7" t="n">
-        <v>19647133</v>
+        <v>1173707.549841166</v>
       </c>
       <c r="J7" t="n">
-        <v>1616309.839046955</v>
-      </c>
-      <c r="K7" t="n">
-        <v>550942.9977810383</v>
+        <v>458444.4515973032</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Iran</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>0.42</v>
+      </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>82913906</v>
       </c>
       <c r="E8" t="n">
-        <v>82913906</v>
+        <v>75.39100000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>75.39100000000001</v>
+        <v>18151487</v>
       </c>
       <c r="G8" t="n">
-        <v>18151487</v>
+        <v>2765485</v>
       </c>
       <c r="H8" t="n">
-        <v>2765485</v>
+        <v>91205296.59999999</v>
       </c>
       <c r="I8" t="n">
-        <v>91205296.59999999</v>
+        <v>1704420.667387366</v>
       </c>
       <c r="J8" t="n">
-        <v>1808459.977539659</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2211809.260629296</v>
+        <v>2204333.234232783</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Israel</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>0.39</v>
+      </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>9054000</v>
       </c>
       <c r="E9" t="n">
-        <v>9054000</v>
+        <v>92.501</v>
       </c>
       <c r="F9" t="n">
-        <v>92.501</v>
+        <v>16561281</v>
       </c>
       <c r="G9" t="n">
-        <v>16561281</v>
+        <v>839208</v>
       </c>
       <c r="H9" t="n">
-        <v>839208</v>
+        <v>9959400</v>
       </c>
       <c r="I9" t="n">
-        <v>9959400</v>
+        <v>527852.0890156627</v>
       </c>
       <c r="J9" t="n">
-        <v>554889.3229682744</v>
-      </c>
-      <c r="K9" t="n">
-        <v>218492.8215153515</v>
+        <v>137071.0585970879</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Paraguay</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>0.457</v>
+      </c>
       <c r="D10" t="n">
-        <v>45.7</v>
+        <v>7044636</v>
       </c>
       <c r="E10" t="n">
-        <v>7044636</v>
+        <v>61.879</v>
       </c>
       <c r="F10" t="n">
-        <v>61.879</v>
+        <v>1187842</v>
       </c>
       <c r="G10" t="n">
-        <v>1187842</v>
+        <v>315547</v>
       </c>
       <c r="H10" t="n">
-        <v>315547</v>
+        <v>7749099.600000001</v>
       </c>
       <c r="I10" t="n">
-        <v>7749099.600000001</v>
+        <v>731229.9269056916</v>
       </c>
       <c r="J10" t="n">
-        <v>780532.8447445631</v>
-      </c>
-      <c r="K10" t="n">
-        <v>185969.2430692613</v>
+        <v>175536.5894390792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>0.457</v>
+      </c>
       <c r="D11" t="n">
-        <v>45.7</v>
+        <v>17373662</v>
       </c>
       <c r="E11" t="n">
-        <v>17373662</v>
+        <v>63.986</v>
       </c>
       <c r="F11" t="n">
-        <v>63.986</v>
+        <v>1312352</v>
       </c>
       <c r="G11" t="n">
-        <v>1312352</v>
+        <v>410870</v>
       </c>
       <c r="H11" t="n">
-        <v>410870</v>
+        <v>19111028.2</v>
       </c>
       <c r="I11" t="n">
-        <v>19111028.2</v>
+        <v>929388.7327637076</v>
       </c>
       <c r="J11" t="n">
-        <v>929468.7989557981</v>
-      </c>
-      <c r="K11" t="n">
-        <v>538342.9408106506</v>
+        <v>465069.2912610471</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100400000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>43</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2824316</v>
+      </c>
+      <c r="G12" t="n">
+        <v>258407</v>
+      </c>
+      <c r="H12" t="n">
+        <v>110440000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1437885.004332185</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2497490.042134404</v>
       </c>
     </row>
   </sheetData>
